--- a/road_type.xlsx
+++ b/road_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\CMIEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A413E3F6-3410-4049-9773-CE365EDA3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49976BEE-8E13-4F7E-80F7-D2F54BCC3E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="0" windowWidth="33960" windowHeight="16950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +435,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>103378</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>105203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>108909</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
